--- a/names.xlsx
+++ b/names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spots\Desktop\NewContent\New folder\Task-JS-Email-Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Task-JS-Email-Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CB0E3-2463-465E-B687-99249DFE0F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF55EE1-B263-BE45-A88E-2391732766E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{14BA8181-9CE3-4AB3-98DF-BCCC615F1735}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{14BA8181-9CE3-4AB3-98DF-BCCC615F1735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,16 +435,16 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -458,7 +458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,7 +472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
